--- a/results/FrequencyTables/26581162_sg78F.xlsx
+++ b/results/FrequencyTables/26581162_sg78F.xlsx
@@ -465,43 +465,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="C2">
-        <v>0.9875</v>
+        <v>0.906183368869936</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00426439232409382</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.989339019189765</v>
       </c>
       <c r="F2">
-        <v>0.975</v>
+        <v>0.921108742004264</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00639658848614072</v>
       </c>
       <c r="I2">
-        <v>0.0125</v>
+        <v>0.0383795309168444</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00426439232409382</v>
       </c>
       <c r="K2">
-        <v>0.8125</v>
+        <v>0.889125799573561</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -513,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0149253731343284</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.997867803837953</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.025</v>
+        <v>0.00639658848614072</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -539,28 +539,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.991471215351812</v>
       </c>
       <c r="C3">
-        <v>0.0125</v>
+        <v>0.00639658848614072</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.991471215351812</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00426439232409382</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9625</v>
+        <v>0.93816631130064</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -569,25 +569,25 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.9875</v>
+        <v>0.97228144989339</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.023454157782516</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00426439232409382</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.997867803837953</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.991471215351812</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00852878464818763</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -596,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.05</v>
+        <v>0.0277185501066098</v>
       </c>
       <c r="V3">
-        <v>0.0125</v>
+        <v>0.00639658848614072</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,37 +613,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.00639658848614072</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0874200426439232</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00426439232409382</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00852878464818763</v>
       </c>
       <c r="F4">
-        <v>0.025</v>
+        <v>0.070362473347548</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.995735607675906</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.991471215351812</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00852878464818763</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00426439232409382</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00639658848614072</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.997867803837953</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="W4">
-        <v>0.975</v>
+        <v>0.987206823027719</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.993603411513859</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -699,43 +699,43 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00426439232409382</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00213219616204691</v>
       </c>
       <c r="I5">
-        <v>0.025</v>
+        <v>0.0149253731343284</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.991471215351812</v>
       </c>
       <c r="K5">
-        <v>0.1875</v>
+        <v>0.106609808102345</v>
       </c>
       <c r="L5">
-        <v>0.0125</v>
+        <v>0.0191897654584222</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0.976545842217484</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.993603411513859</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00852878464818763</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.976545842217484</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.95</v>
+        <v>0.970149253731343</v>
       </c>
       <c r="V5">
-        <v>0.9875</v>
+        <v>0.991471215351812</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00426439232409382</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00426439232409382</v>
       </c>
     </row>
   </sheetData>
